--- a/misc/WindspeedCalib.xlsx
+++ b/misc/WindspeedCalib.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="65" windowWidth="17640" windowHeight="6905"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="17640" windowHeight="6900"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Reg_Hz2kmph" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -18,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>U/10s</t>
+    <t>km/h</t>
   </si>
   <si>
-    <t>km/h</t>
+    <t>Hz</t>
   </si>
 </sst>
 </file>
@@ -116,7 +114,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Reg_Hz2kmph!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -138,8 +136,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.32726684164479442"/>
-                  <c:y val="-0.1586891221930592"/>
+                  <c:x val="0.24638193572106989"/>
+                  <c:y val="-6.2014012591508183E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -147,118 +145,118 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Tabelle1!$A$2:$A$40</c:f>
+              <c:f>Reg_Hz2kmph!$A$2:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>9.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158</c:v>
+                  <c:v>15.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>86</c:v>
+                  <c:v>8.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>248</c:v>
+                  <c:v>24.8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>156</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>205</c:v>
+                  <c:v>20.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>185</c:v>
+                  <c:v>18.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>132</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>136</c:v>
+                  <c:v>13.6</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>230</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>170</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>120</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>175</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>85</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>80</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>145</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>170</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>60</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>238</c:v>
+                  <c:v>23.8</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>48</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$40</c:f>
+              <c:f>Reg_Hz2kmph!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="39"/>
@@ -377,11 +375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259843968"/>
-        <c:axId val="259842432"/>
+        <c:axId val="575994496"/>
+        <c:axId val="594981248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="259843968"/>
+        <c:axId val="575994496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,12 +389,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259842432"/>
+        <c:crossAx val="594981248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259842432"/>
+        <c:axId val="594981248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259843968"/>
+        <c:crossAx val="575994496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -433,21 +431,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>198437</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>198437</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -754,289 +754,289 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>92</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>108</v>
+        <v>10.8</v>
       </c>
       <c r="B3" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>156</v>
+        <v>15.6</v>
       </c>
       <c r="B4" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>158</v>
+        <v>15.8</v>
       </c>
       <c r="B5" s="1">
         <v>46.5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>19.5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>74</v>
+        <v>7.4</v>
       </c>
       <c r="B7" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>42</v>
+        <v>4.2</v>
       </c>
       <c r="B8" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>58</v>
+        <v>5.8</v>
       </c>
       <c r="B9" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>86</v>
+        <v>8.6</v>
       </c>
       <c r="B10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>96</v>
+        <v>9.6</v>
       </c>
       <c r="B11" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>248</v>
+        <v>24.8</v>
       </c>
       <c r="B12" s="1">
         <v>64.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>156</v>
+        <v>15.6</v>
       </c>
       <c r="B14" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>155</v>
+        <v>15.5</v>
       </c>
       <c r="B15" s="1">
         <v>44.5</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>205</v>
+        <v>20.5</v>
       </c>
       <c r="B16" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>75</v>
+        <v>7.5</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>185</v>
+        <v>18.5</v>
       </c>
       <c r="B19" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>132</v>
+        <v>13.2</v>
       </c>
       <c r="B20" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>136</v>
+        <v>13.6</v>
       </c>
       <c r="B21" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B25" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="B26" s="1">
         <v>42.5</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>175</v>
+        <v>17.5</v>
       </c>
       <c r="B28" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>85</v>
+        <v>8.5</v>
       </c>
       <c r="B29" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>145</v>
+        <v>14.5</v>
       </c>
       <c r="B31" s="1">
         <v>45.5</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1">
         <v>46.5</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>238</v>
+        <v>23.8</v>
       </c>
       <c r="B34" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.65">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>48</v>
+        <v>4.8</v>
       </c>
       <c r="B35" s="1">
         <v>18.5</v>
@@ -1046,28 +1046,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.65"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>